--- a/THIS IS NOT A DRILL/THIS IS NOT A DRILL/Assets/Documentation/ThisIsNotADrill_BurndownChart_Tasks.xlsx
+++ b/THIS IS NOT A DRILL/THIS IS NOT A DRILL/Assets/Documentation/ThisIsNotADrill_BurndownChart_Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galvatron\Documents\School\Fall 2018\Production II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unicron\Documents\Drill_v2\THIS IS NOT A DRILL\THIS IS NOT A DRILL\Assets\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44BF3419-68BA-4D5B-8706-4D4242AE355E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC2B73-2168-4456-9B24-EC4FE237496F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{0D0AFE84-C834-4669-8B9A-90C8E7230297}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23451" windowHeight="10731" xr2:uid="{0D0AFE84-C834-4669-8B9A-90C8E7230297}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Burdown Chart" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,16 @@
     <definedName name="NameCheck" localSheetId="2">OFFSET('dropdown lists'!#REF!,0,0,COUNT('dropdown lists'!#REF!),1)</definedName>
     <definedName name="NameCheck">OFFSET('dropdown lists'!#REF!,0,0,COUNT('dropdown lists'!#REF!),1)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -335,12 +341,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,11 +360,126 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -434,34 +549,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -490,6 +577,34 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,8 +702,162 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1 Burdown Chart'!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Units Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sprint 1 Burdown Chart'!$B$7:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sprint 1 Burdown Chart'!$L$7:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-769F-4252-82F7-D2405E88A883}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1 Burdown Chart'!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Units Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -676,207 +945,45 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref> </c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-769F-4252-82F7-D2405E88A883}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sprint 1 Burdown Chart'!$B$7:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sprint 1 Burdown Chart'!$L$7:$L$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>59.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref> </c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-769F-4252-82F7-D2405E88A883}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1011,6 +1118,7 @@
         <c:axId val="362350736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="70"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1819,38 +1927,65 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C185265-75D2-4C26-A9C3-EBDF395F6246}" name="Table2" displayName="Table2" ref="A4:J18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A69F9AEC-89E9-473B-ABC6-0BA32B8BCCC2}" name="Table1" displayName="Table1" ref="A6:L17" totalsRowShown="0">
+  <autoFilter ref="A6:L17" xr:uid="{37F2A938-6873-428E-BEE1-017F383F9B4C}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{5A8C7535-0310-4809-97DE-C8CFC8C0C8D3}" name="Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{CBCF6E09-1323-473E-93DA-0A086613D9E1}" name="Day" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{554B0F3D-4503-48E9-9C80-45219CECBFA5}" name="Jesse" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{CE87787F-D279-4662-ADDF-F3A6CE1B40A2}" name="Nick" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{422B31AF-A0F2-49A9-9CE3-7F60CDD73269}" name="Evan" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{73AE4106-2ADE-4043-B9EF-C06F9E8BD446}" name="Bradley" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{8CB85ABB-E7BD-4534-AFE4-54BE7FD16476}" name="Zack" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{7021B700-06AE-450F-B31F-6CBCCE80DB15}" name="Jordan" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{BD5D0C5A-3B26-4E52-8B22-BE44D35C5AC0}" name="Jon" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{C9776A72-3698-4906-8310-312F0CC0B8D2}" name="Units Input" dataDxfId="1">
+      <calculatedColumnFormula>SUM(C7:I7)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{02F06725-B8B6-4455-9306-B69F14CA114E}" name="Actual Units Remaining" dataDxfId="9">
+      <calculatedColumnFormula>K6-J7</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{307B8565-B817-4687-A1BC-A88882C97019}" name="Ideal Units Remaining">
+      <calculatedColumnFormula>$L$7-($B$3/$B$17)*B7</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C185265-75D2-4C26-A9C3-EBDF395F6246}" name="Table2" displayName="Table2" ref="A4:J18" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A4:J18" xr:uid="{238573B6-4F77-4E3F-9333-AB7062E21C6E}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{FB0D5E8E-D49F-4A4F-A1C8-10D1F804E744}" name="Tasks" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{B21A3A88-3C45-46B4-8E7B-428E79171604}" name="Task Description" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{6F54CAB7-AA43-478D-BED0-060A946CC162}" name="Current Status" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{3C470B95-24F4-410B-B9C7-86831365F14C}" name="Priority" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{DB59F48F-068E-4554-A433-AC916D547F77}" name="Estimated Cost" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{0495362E-7953-4B9D-B476-F6051BD087F1}" name="Actual Cost" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{207F7F77-EE2D-448E-8B0D-096C147DB3EB}" name="Assigned to" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{ADA07A35-28BE-413B-9232-6221509C785E}" name="Assigned to2" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{11ACF323-20A0-427C-AB3F-8C7ECB243F62}" name="Assigned to3" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{55692A66-FFE2-4A9F-9FA7-59D063D125BB}" name="Assigned to4" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{FB0D5E8E-D49F-4A4F-A1C8-10D1F804E744}" name="Tasks" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{B21A3A88-3C45-46B4-8E7B-428E79171604}" name="Task Description" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{6F54CAB7-AA43-478D-BED0-060A946CC162}" name="Current Status" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{3C470B95-24F4-410B-B9C7-86831365F14C}" name="Priority" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{DB59F48F-068E-4554-A433-AC916D547F77}" name="Estimated Cost" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{0495362E-7953-4B9D-B476-F6051BD087F1}" name="Actual Cost" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{207F7F77-EE2D-448E-8B0D-096C147DB3EB}" name="Assigned to" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{ADA07A35-28BE-413B-9232-6221509C785E}" name="Assigned to2" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{11ACF323-20A0-427C-AB3F-8C7ECB243F62}" name="Assigned to3" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{55692A66-FFE2-4A9F-9FA7-59D063D125BB}" name="Assigned to4" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6006CF7F-44AC-4809-8E00-100C19F9FD82}" name="Table24" displayName="Table24" ref="A4:J11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6006CF7F-44AC-4809-8E00-100C19F9FD82}" name="Table24" displayName="Table24" ref="A4:J11" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A4:J11" xr:uid="{238573B6-4F77-4E3F-9333-AB7062E21C6E}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{2C457C70-1123-4017-AE51-2CC5D2A844E7}" name="Tasks" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{FCCD1CAF-EA99-4468-A295-83FE2F44177C}" name="Task Description" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E8CB51C5-2DEF-449D-8BB7-4FCF9D19CE49}" name="Current Status" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{AAAA3343-80A0-40B9-A719-1DE48EAF9D7E}" name="Priority" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D6078943-C76D-4FED-A129-81B40AA4CB7E}" name="Estimated Cost" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{C41B33AF-9363-403A-98F1-99DF1B5A5BB0}" name="Actual Cost" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{FFD7C7D0-363A-49E6-A309-A856F8D99708}" name="Assigned to" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{28A3FFAC-155E-4227-98FA-6A281B68A038}" name="Assigned to2" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{E1574DDF-EEFA-4287-B8BC-D8B88ACF543B}" name="Assigned to3" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{8C5A773B-5ADB-4119-BCE0-AB08109C430F}" name="Assigned to4" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2C457C70-1123-4017-AE51-2CC5D2A844E7}" name="Tasks" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{FCCD1CAF-EA99-4468-A295-83FE2F44177C}" name="Task Description" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{E8CB51C5-2DEF-449D-8BB7-4FCF9D19CE49}" name="Current Status" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{AAAA3343-80A0-40B9-A719-1DE48EAF9D7E}" name="Priority" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{D6078943-C76D-4FED-A129-81B40AA4CB7E}" name="Estimated Cost" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{C41B33AF-9363-403A-98F1-99DF1B5A5BB0}" name="Actual Cost" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{FFD7C7D0-363A-49E6-A309-A856F8D99708}" name="Assigned to" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{28A3FFAC-155E-4227-98FA-6A281B68A038}" name="Assigned to2" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{E1574DDF-EEFA-4287-B8BC-D8B88ACF543B}" name="Assigned to3" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{8C5A773B-5ADB-4119-BCE0-AB08109C430F}" name="Assigned to4" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2156,398 +2291,407 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="11.69140625" customWidth="1"/>
+    <col min="3" max="5" width="7.15234375" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="7.15234375" customWidth="1"/>
+    <col min="8" max="8" width="8.3046875" customWidth="1"/>
+    <col min="9" max="9" width="7.15234375" customWidth="1"/>
+    <col min="10" max="10" width="11.921875" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="20.765625" customWidth="1"/>
+    <col min="14" max="15" width="9.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:12" ht="23.15" x14ac:dyDescent="0.6">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E2" s="7" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="B4" s="2">
         <f>A17</f>
         <v>43483</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>43473</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="1">
-        <f>SUM(C7:E7)</f>
+        <f>SUM(C7:I7)</f>
         <v>1</v>
       </c>
       <c r="K7" s="4">
-        <f>$C$3-J7</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L7">
-        <f>C3</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <f>B3</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>43474</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:J16" si="0">SUM(C8:E8)</f>
+        <f t="shared" ref="J8:J17" si="0">SUM(C8:I8)</f>
         <v>4</v>
       </c>
       <c r="K8" s="4">
         <f>K7-J8</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L8">
-        <f>$L$7-($C$3/$B$17)*B8</f>
-        <v>59.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <f>$L$7-($B$3/$B$17)*B8</f>
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>43475</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3</v>
+      </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" ref="K9:K16" si="1">K8-J9</f>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L17" si="2">$L$7-($C$3/$B$17)*B9</f>
-        <v>52.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <f>$L$7-($B$3/$B$17)*B9</f>
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>43476</v>
       </c>
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <f>$L$7-($B$3/$B$17)*B10</f>
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>43477</v>
       </c>
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <f>$L$7-($B$3/$B$17)*B11</f>
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>43478</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <f>$L$7-($B$3/$B$17)*B12</f>
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>43479</v>
       </c>
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
-        <v>26.400000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <f>$L$7-($B$3/$B$17)*B13</f>
+        <v>26.799999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>43480</v>
       </c>
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
-        <v>19.800000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <f>$L$7-($B$3/$B$17)*B14</f>
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>43481</v>
       </c>
       <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
-        <v>13.200000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <f>$L$7-($B$3/$B$17)*B15</f>
+        <v>13.399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>43482</v>
       </c>
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
-        <v>6.6000000000000014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <f>$L$7-($B$3/$B$17)*B16</f>
+        <v>6.6999999999999957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>43483</v>
       </c>
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="1">
-        <f t="shared" ref="J17" si="3">SUM(C17:E17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" ref="K17" si="4">K16-J17</f>
-        <v>61</v>
+        <f t="shared" ref="K17" si="2">K16-J17</f>
+        <v>51</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f>$L$7-($B$3/$B$17)*B17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
@@ -2560,7 +2704,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
@@ -2573,7 +2717,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
@@ -2586,7 +2730,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
@@ -2599,7 +2743,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
@@ -2612,7 +2756,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
@@ -2631,12 +2775,16 @@
     <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="K7:K17">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$K7&gt;$L7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2644,530 +2792,534 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D590CB-B17C-4430-8F9C-D5CADCE15CDF}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="20.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:10" ht="23.15" x14ac:dyDescent="0.6">
+      <c r="C1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D2" s="7" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="D2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="E2" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>2</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>8</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>6</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>6</v>
+      </c>
+      <c r="F9" s="10">
+        <v>7</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>11</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>16</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="E9" s="12">
-        <v>5</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="E13" s="10">
+        <v>8</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="12">
-        <v>11</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12">
-        <v>3</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="F17" s="10">
         <v>1</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="12">
-        <v>16</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12" t="s">
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="12">
-        <v>2</v>
-      </c>
-      <c r="E13" s="12">
-        <v>8</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="12">
-        <v>2</v>
-      </c>
-      <c r="E14" s="12">
-        <v>2</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="12">
-        <v>2</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="12">
-        <v>2</v>
-      </c>
-      <c r="E16" s="12">
-        <v>2</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="12">
-        <v>2</v>
-      </c>
-      <c r="E17" s="12">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3213,328 +3365,328 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="20.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:10" ht="23.15" x14ac:dyDescent="0.6">
+      <c r="C1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D2" s="7" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="D2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="E2" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>4</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>6</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>4</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>6</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>2</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>4</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>4</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>1</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>8</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3580,12 +3732,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -3596,7 +3748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -3607,7 +3759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -3618,7 +3770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -3629,7 +3781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>5</v>
       </c>
@@ -3637,12 +3789,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>29</v>
       </c>
